--- a/Archiwum.xlsx
+++ b/Archiwum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,71 +436,78 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nazwa banku</t>
+          <t>Nazwa banku klienta</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Nazwa banku firmy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NIP firmy</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>numer karty</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>imie</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>nazwisko</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>kwota</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Nazwa banku firmy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Nazwa banku klienta</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PKO</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>PKO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>123</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>12345</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="E2" t="n">
         <v>100</v>
       </c>
-      <c r="G2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>PKO</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>PKO</t>
-        </is>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ING</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Archiwum.xlsx
+++ b/Archiwum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,34 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PKO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PKO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
